--- a/Assignment/Data/Bank/bank-additional/Results tidy.xlsx
+++ b/Assignment/Data/Bank/bank-additional/Results tidy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +18,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>nn=100</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>nn=10</t>
+  </si>
+  <si>
+    <t>nn=1000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +366,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F64714-106C-42B6-9100-99363BFB1E94}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignment/Data/Bank/bank-additional/Results tidy.xlsx
+++ b/Assignment/Data/Bank/bank-additional/Results tidy.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="8" r:id="rId1"/>
+    <sheet name="KNN" sheetId="8" r:id="rId1"/>
+    <sheet name="DT" sheetId="9" r:id="rId2"/>
+    <sheet name="RF" sheetId="10" r:id="rId3"/>
+    <sheet name="NB" sheetId="11" r:id="rId4"/>
+    <sheet name="SVC" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="20">
   <si>
     <t>nn=100</t>
   </si>
@@ -48,7 +52,37 @@
     <t>nn=10</t>
   </si>
   <si>
-    <t>nn=1000</t>
+    <t>nn=500</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>unscaled</t>
+  </si>
+  <si>
+    <t>imp mf</t>
+  </si>
+  <si>
+    <t>n=100</t>
+  </si>
+  <si>
+    <t>depth=5</t>
+  </si>
+  <si>
+    <t>depth=10</t>
+  </si>
+  <si>
+    <t>depth=100</t>
+  </si>
+  <si>
+    <t>nest=200</t>
+  </si>
+  <si>
+    <t>nest=10</t>
+  </si>
+  <si>
+    <t>nest=1000</t>
   </si>
 </sst>
 </file>
@@ -72,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -80,13 +114,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,15 +490,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F64714-106C-42B6-9100-99363BFB1E94}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -389,64 +512,2571 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10662</v>
+      </c>
+      <c r="C8" s="6">
+        <v>305</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10617</v>
+      </c>
+      <c r="F8" s="6">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10690</v>
+      </c>
+      <c r="I8" s="6">
+        <v>277</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>844</v>
+      </c>
+      <c r="C9" s="6">
+        <v>546</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E9" s="5">
+        <v>815</v>
+      </c>
+      <c r="F9" s="6">
+        <v>575</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="H9" s="5">
+        <v>883</v>
+      </c>
+      <c r="I9" s="6">
+        <v>507</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10">
+        <v>12357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10576</v>
+      </c>
+      <c r="C17" s="6">
+        <v>391</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10576</v>
+      </c>
+      <c r="F17" s="6">
+        <v>391</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5">
+        <v>7796</v>
+      </c>
+      <c r="I17" s="6">
+        <v>228</v>
+      </c>
+      <c r="J17" s="7">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>721</v>
+      </c>
+      <c r="C18" s="6">
+        <v>669</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E18" s="5">
+        <v>721</v>
+      </c>
+      <c r="F18" s="6">
+        <v>669</v>
+      </c>
+      <c r="G18" s="7">
+        <v>12357</v>
+      </c>
+      <c r="H18" s="5">
+        <v>671</v>
+      </c>
+      <c r="I18" s="6">
+        <v>452</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10">
+        <v>9147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8011FA00-DF91-4FC2-A3C3-13F1BC845898}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10471</v>
+      </c>
+      <c r="C8" s="6">
+        <v>496</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10475</v>
+      </c>
+      <c r="F8" s="6">
+        <v>492</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10291</v>
+      </c>
+      <c r="I8" s="6">
+        <v>676</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>644</v>
+      </c>
+      <c r="C9" s="6">
+        <v>746</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E9" s="5">
+        <v>675</v>
+      </c>
+      <c r="F9" s="6">
+        <v>715</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="H9" s="5">
+        <v>700</v>
+      </c>
+      <c r="I9" s="6">
+        <v>690</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10">
+        <v>12357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10543</v>
+      </c>
+      <c r="C17" s="6">
+        <v>424</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10543</v>
+      </c>
+      <c r="F17" s="6">
+        <v>424</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5">
+        <v>7554</v>
+      </c>
+      <c r="I17" s="6">
+        <v>470</v>
+      </c>
+      <c r="J17" s="7">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>679</v>
+      </c>
+      <c r="C18" s="6">
+        <v>711</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E18" s="5">
+        <v>679</v>
+      </c>
+      <c r="F18" s="6">
+        <v>711</v>
+      </c>
+      <c r="G18" s="7">
+        <v>12357</v>
+      </c>
+      <c r="H18" s="5">
+        <v>396</v>
+      </c>
+      <c r="I18" s="6">
+        <v>727</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10">
+        <v>9147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C4C99-3C74-4132-B8AE-320AC7751DD9}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10547</v>
+      </c>
+      <c r="C8" s="6">
+        <v>420</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10569</v>
+      </c>
+      <c r="F8" s="6">
+        <v>398</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10540</v>
+      </c>
+      <c r="I8" s="6">
+        <v>427</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>718</v>
+      </c>
+      <c r="C9" s="6">
+        <v>672</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E9" s="5">
+        <v>792</v>
+      </c>
+      <c r="F9" s="6">
+        <v>598</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="H9" s="5">
+        <v>708</v>
+      </c>
+      <c r="I9" s="6">
+        <v>682</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10">
+        <v>12357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10621</v>
+      </c>
+      <c r="C17" s="6">
+        <v>346</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10621</v>
+      </c>
+      <c r="F17" s="6">
+        <v>346</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5">
+        <v>10621</v>
+      </c>
+      <c r="I17" s="6">
+        <v>346</v>
+      </c>
+      <c r="J17" s="7">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>727</v>
+      </c>
+      <c r="C18" s="6">
+        <v>663</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E18" s="5">
+        <v>727</v>
+      </c>
+      <c r="F18" s="6">
+        <v>663</v>
+      </c>
+      <c r="G18" s="7">
+        <v>12357</v>
+      </c>
+      <c r="H18" s="5">
+        <v>727</v>
+      </c>
+      <c r="I18" s="6">
+        <v>663</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10">
+        <v>9147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C57C68-477D-406F-86F5-5E486C207B00}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10662</v>
+      </c>
+      <c r="C8" s="6">
+        <v>305</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10617</v>
+      </c>
+      <c r="F8" s="6">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10690</v>
+      </c>
+      <c r="I8" s="6">
+        <v>277</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>844</v>
+      </c>
+      <c r="C9" s="6">
+        <v>546</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E9" s="5">
+        <v>815</v>
+      </c>
+      <c r="F9" s="6">
+        <v>575</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="H9" s="5">
+        <v>883</v>
+      </c>
+      <c r="I9" s="6">
+        <v>507</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10">
+        <v>12357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10576</v>
+      </c>
+      <c r="C17" s="6">
+        <v>391</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10576</v>
+      </c>
+      <c r="F17" s="6">
+        <v>391</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5">
+        <v>7796</v>
+      </c>
+      <c r="I17" s="6">
+        <v>228</v>
+      </c>
+      <c r="J17" s="7">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>721</v>
+      </c>
+      <c r="C18" s="6">
+        <v>669</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E18" s="5">
+        <v>721</v>
+      </c>
+      <c r="F18" s="6">
+        <v>669</v>
+      </c>
+      <c r="G18" s="7">
+        <v>12357</v>
+      </c>
+      <c r="H18" s="5">
+        <v>671</v>
+      </c>
+      <c r="I18" s="6">
+        <v>452</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10">
+        <v>9147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F83B211-CBD0-4E6D-B750-6BF216272E4E}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10662</v>
+      </c>
+      <c r="C8" s="6">
+        <v>305</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10617</v>
+      </c>
+      <c r="F8" s="6">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10967</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10690</v>
+      </c>
+      <c r="I8" s="6">
+        <v>277</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>844</v>
+      </c>
+      <c r="C9" s="6">
+        <v>546</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E9" s="5">
+        <v>815</v>
+      </c>
+      <c r="F9" s="6">
+        <v>575</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1390</v>
+      </c>
+      <c r="H9" s="5">
+        <v>883</v>
+      </c>
+      <c r="I9" s="6">
+        <v>507</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10">
+        <v>12357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10576</v>
+      </c>
+      <c r="C17" s="6">
+        <v>391</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10967</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10576</v>
+      </c>
+      <c r="F17" s="6">
+        <v>391</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5">
+        <v>7796</v>
+      </c>
+      <c r="I17" s="6">
+        <v>228</v>
+      </c>
+      <c r="J17" s="7">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>721</v>
+      </c>
+      <c r="C18" s="6">
+        <v>669</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E18" s="5">
+        <v>721</v>
+      </c>
+      <c r="F18" s="6">
+        <v>669</v>
+      </c>
+      <c r="G18" s="7">
+        <v>12357</v>
+      </c>
+      <c r="H18" s="5">
+        <v>671</v>
+      </c>
+      <c r="I18" s="6">
+        <v>452</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10">
+        <v>12357</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10">
+        <v>9147</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment/Data/Bank/bank-additional/Results tidy.xlsx
+++ b/Assignment/Data/Bank/bank-additional/Results tidy.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KNN" sheetId="8" r:id="rId1"/>
     <sheet name="DT" sheetId="9" r:id="rId2"/>
     <sheet name="RF" sheetId="10" r:id="rId3"/>
     <sheet name="NB" sheetId="11" r:id="rId4"/>
-    <sheet name="SVC" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="20">
   <si>
     <t>nn=100</t>
   </si>
@@ -1531,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C4C99-3C74-4132-B8AE-320AC7751DD9}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1868,7 @@
         <v>0.91</v>
       </c>
       <c r="H13" s="5">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="I13" s="6">
         <v>0.62</v>
@@ -1901,10 +1900,10 @@
         <v>0.92</v>
       </c>
       <c r="H14" s="5">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I14" s="6">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="J14" s="7">
         <v>0.9</v>
@@ -1959,7 +1958,8 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="7">
-        <v>0.91</v>
+        <f>ROUND((H17+I18)/J19,2)</f>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="5">
-        <v>10621</v>
+        <v>7660</v>
       </c>
       <c r="I17" s="6">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="J17" s="7">
         <v>8024</v>
@@ -2015,10 +2015,10 @@
         <v>12357</v>
       </c>
       <c r="H18" s="5">
-        <v>727</v>
+        <v>537</v>
       </c>
       <c r="I18" s="6">
-        <v>663</v>
+        <v>586</v>
       </c>
       <c r="J18" s="7">
         <v>1123</v>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C57C68-477D-406F-86F5-5E486C207B00}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2071,19 +2071,13 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
@@ -2097,120 +2091,72 @@
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="C4" s="6">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="D4" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.89</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="C5" s="6">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D5" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.91</v>
-      </c>
+        <v>0.54</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="C6" s="6">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="D6" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="J6" s="7">
         <v>0.89</v>
       </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2219,82 +2165,54 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7">
-        <v>0.91</v>
-      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7">
-        <v>0.91</v>
-      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="5">
-        <v>10662</v>
+        <v>10081</v>
       </c>
       <c r="C8" s="6">
-        <v>305</v>
+        <v>886</v>
       </c>
       <c r="D8" s="7">
         <v>10967</v>
       </c>
-      <c r="E8" s="5">
-        <v>10617</v>
-      </c>
-      <c r="F8" s="6">
-        <v>350</v>
-      </c>
-      <c r="G8" s="7">
-        <v>10967</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10690</v>
-      </c>
-      <c r="I8" s="6">
-        <v>277</v>
-      </c>
-      <c r="J8" s="7">
-        <v>10967</v>
-      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5">
+        <v>546</v>
+      </c>
+      <c r="C9" s="6">
         <v>844</v>
-      </c>
-      <c r="C9" s="6">
-        <v>546</v>
       </c>
       <c r="D9" s="7">
         <v>1390</v>
       </c>
-      <c r="E9" s="5">
-        <v>815</v>
-      </c>
-      <c r="F9" s="6">
-        <v>575</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1390</v>
-      </c>
-      <c r="H9" s="5">
-        <v>883</v>
-      </c>
-      <c r="I9" s="6">
-        <v>507</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1390</v>
-      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
@@ -2304,33 +2222,23 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10">
-        <v>12357</v>
-      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="10">
-        <v>12357</v>
-      </c>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2373,28 +2281,28 @@
         <v>0.94</v>
       </c>
       <c r="C13" s="6">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="D13" s="7">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E13" s="5">
         <v>0.94</v>
       </c>
       <c r="F13" s="6">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="G13" s="7">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="H13" s="5">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="I13" s="6">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="7">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2402,31 +2310,31 @@
         <v>5</v>
       </c>
       <c r="B14" s="5">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="C14" s="6">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="D14" s="7">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="E14" s="5">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="F14" s="6">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="G14" s="7">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="H14" s="5">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="I14" s="6">
-        <v>0.4</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J14" s="7">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2434,31 +2342,31 @@
         <v>6</v>
       </c>
       <c r="B15" s="5">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C15" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="D15" s="7">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E15" s="5">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="G15" s="7">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="H15" s="5">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="I15" s="6">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="J15" s="7">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2468,17 +2376,17 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="7">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2486,26 +2394,26 @@
         <v>1</v>
       </c>
       <c r="B17" s="5">
-        <v>10576</v>
+        <v>10574</v>
       </c>
       <c r="C17" s="6">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D17" s="7">
         <v>10967</v>
       </c>
       <c r="E17" s="5">
-        <v>10576</v>
+        <v>9503</v>
       </c>
       <c r="F17" s="6">
-        <v>391</v>
+        <v>1464</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="5">
-        <v>7796</v>
+        <v>7383</v>
       </c>
       <c r="I17" s="6">
-        <v>228</v>
+        <v>641</v>
       </c>
       <c r="J17" s="7">
         <v>8024</v>
@@ -2516,28 +2424,28 @@
         <v>2</v>
       </c>
       <c r="B18" s="5">
-        <v>721</v>
+        <v>655</v>
       </c>
       <c r="C18" s="6">
-        <v>669</v>
+        <v>735</v>
       </c>
       <c r="D18" s="7">
         <v>1390</v>
       </c>
       <c r="E18" s="5">
-        <v>721</v>
+        <v>563</v>
       </c>
       <c r="F18" s="6">
-        <v>669</v>
+        <v>827</v>
       </c>
       <c r="G18" s="7">
         <v>12357</v>
       </c>
       <c r="H18" s="5">
-        <v>671</v>
+        <v>486</v>
       </c>
       <c r="I18" s="6">
-        <v>452</v>
+        <v>637</v>
       </c>
       <c r="J18" s="7">
         <v>1123</v>
@@ -2563,523 +2471,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F83B211-CBD0-4E6D-B750-6BF216272E4E}">
-  <dimension ref="A1:M19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>10662</v>
-      </c>
-      <c r="C8" s="6">
-        <v>305</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10967</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10617</v>
-      </c>
-      <c r="F8" s="6">
-        <v>350</v>
-      </c>
-      <c r="G8" s="7">
-        <v>10967</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10690</v>
-      </c>
-      <c r="I8" s="6">
-        <v>277</v>
-      </c>
-      <c r="J8" s="7">
-        <v>10967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5">
-        <v>844</v>
-      </c>
-      <c r="C9" s="6">
-        <v>546</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1390</v>
-      </c>
-      <c r="E9" s="5">
-        <v>815</v>
-      </c>
-      <c r="F9" s="6">
-        <v>575</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1390</v>
-      </c>
-      <c r="H9" s="5">
-        <v>883</v>
-      </c>
-      <c r="I9" s="6">
-        <v>507</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10">
-        <v>12357</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10">
-        <v>12357</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10">
-        <v>12357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7">
-        <v>0.91</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5">
-        <v>10576</v>
-      </c>
-      <c r="C17" s="6">
-        <v>391</v>
-      </c>
-      <c r="D17" s="7">
-        <v>10967</v>
-      </c>
-      <c r="E17" s="5">
-        <v>10576</v>
-      </c>
-      <c r="F17" s="6">
-        <v>391</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5">
-        <v>7796</v>
-      </c>
-      <c r="I17" s="6">
-        <v>228</v>
-      </c>
-      <c r="J17" s="7">
-        <v>8024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5">
-        <v>721</v>
-      </c>
-      <c r="C18" s="6">
-        <v>669</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1390</v>
-      </c>
-      <c r="E18" s="5">
-        <v>721</v>
-      </c>
-      <c r="F18" s="6">
-        <v>669</v>
-      </c>
-      <c r="G18" s="7">
-        <v>12357</v>
-      </c>
-      <c r="H18" s="5">
-        <v>671</v>
-      </c>
-      <c r="I18" s="6">
-        <v>452</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10">
-        <v>12357</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10">
-        <v>12357</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10">
-        <v>9147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assignment/Data/Bank/bank-additional/Results tidy.xlsx
+++ b/Assignment/Data/Bank/bank-additional/Results tidy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KNN" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="21">
   <si>
     <t>nn=100</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>nest=1000</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -492,12 +495,12 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:XFD1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -511,7 +514,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +531,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -557,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -589,7 +592,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -621,7 +624,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -653,7 +656,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -673,7 +676,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -705,7 +708,7 @@
         <v>10967</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -737,7 +740,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10">
@@ -754,7 +757,7 @@
         <v>12357</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
@@ -777,7 +780,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
@@ -806,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -820,13 +823,13 @@
         <v>0.9</v>
       </c>
       <c r="E13" s="5">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="F13" s="6">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="G13" s="7">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H13" s="5">
         <v>0.92</v>
@@ -838,7 +841,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -852,10 +855,10 @@
         <v>0.91</v>
       </c>
       <c r="E14" s="5">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F14" s="6">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="G14" s="7">
         <v>0.91</v>
@@ -870,7 +873,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -887,10 +890,10 @@
         <v>0.95</v>
       </c>
       <c r="F15" s="6">
-        <v>0.55000000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="G15" s="7">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H15" s="5">
         <v>0.95</v>
@@ -902,7 +905,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -922,7 +925,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -936,10 +939,10 @@
         <v>10967</v>
       </c>
       <c r="E17" s="5">
-        <v>10576</v>
+        <v>10689</v>
       </c>
       <c r="F17" s="6">
-        <v>391</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="5">
@@ -952,7 +955,7 @@
         <v>8024</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -966,10 +969,10 @@
         <v>1390</v>
       </c>
       <c r="E18" s="5">
-        <v>721</v>
+        <v>885</v>
       </c>
       <c r="F18" s="6">
-        <v>669</v>
+        <v>505</v>
       </c>
       <c r="G18" s="7">
         <v>12357</v>
@@ -984,7 +987,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10">
@@ -1012,12 +1015,12 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1031,7 +1034,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1051,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>10967</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10">
@@ -1274,7 +1277,7 @@
         <v>12357</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1300,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>0.94</v>
       </c>
       <c r="F13" s="6">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G13" s="7">
         <v>0.9</v>
@@ -1358,7 +1361,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>0.96</v>
       </c>
       <c r="F14" s="6">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="G14" s="7">
         <v>0.91</v>
@@ -1390,7 +1393,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1407,10 +1410,10 @@
         <v>0.95</v>
       </c>
       <c r="F15" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="G15" s="7">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H15" s="5">
         <v>0.95</v>
@@ -1422,7 +1425,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1456,12 +1459,14 @@
         <v>10967</v>
       </c>
       <c r="E17" s="5">
-        <v>10543</v>
+        <v>10561</v>
       </c>
       <c r="F17" s="6">
-        <v>424</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>406</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10967</v>
+      </c>
       <c r="H17" s="5">
         <v>7554</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>8024</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1486,13 +1491,13 @@
         <v>1390</v>
       </c>
       <c r="E18" s="5">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="F18" s="6">
-        <v>711</v>
+        <v>624</v>
       </c>
       <c r="G18" s="7">
-        <v>12357</v>
+        <v>1390</v>
       </c>
       <c r="H18" s="5">
         <v>396</v>
@@ -1504,7 +1509,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10">
@@ -1531,12 +1536,12 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1550,7 +1555,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1572,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1596,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>10967</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10">
@@ -1793,7 +1798,7 @@
         <v>12357</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1821,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1859,13 +1864,13 @@
         <v>0.91</v>
       </c>
       <c r="E13" s="5">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="F13" s="6">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="G13" s="7">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="5">
         <v>0.93</v>
@@ -1877,7 +1882,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1894,10 +1899,10 @@
         <v>0.96</v>
       </c>
       <c r="F14" s="6">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="G14" s="7">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="H14" s="5">
         <v>0.95</v>
@@ -1909,7 +1914,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1926,10 +1931,10 @@
         <v>0.95</v>
       </c>
       <c r="F15" s="6">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="G15" s="7">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H15" s="5">
         <v>0.95</v>
@@ -1941,7 +1946,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1962,7 +1967,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1976,12 +1981,14 @@
         <v>10967</v>
       </c>
       <c r="E17" s="5">
-        <v>10621</v>
+        <v>10568</v>
       </c>
       <c r="F17" s="6">
-        <v>346</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>399</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10967</v>
+      </c>
       <c r="H17" s="5">
         <v>7660</v>
       </c>
@@ -1992,7 +1999,7 @@
         <v>8024</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2006,13 +2013,13 @@
         <v>1390</v>
       </c>
       <c r="E18" s="5">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="F18" s="6">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="G18" s="7">
-        <v>12357</v>
+        <v>1390</v>
       </c>
       <c r="H18" s="5">
         <v>537</v>
@@ -2024,7 +2031,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10">
@@ -2051,12 +2058,12 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2070,7 +2077,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -2081,7 +2088,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2098,7 +2105,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2125,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2138,7 +2145,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2165,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2174,7 +2181,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2201,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2214,7 +2221,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10">
@@ -2227,7 +2234,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -2244,7 +2251,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
@@ -2273,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2334,10 +2341,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="J14" s="7">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2376,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2389,7 +2396,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2408,7 +2415,9 @@
       <c r="F17" s="6">
         <v>1464</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>10967</v>
+      </c>
       <c r="H17" s="5">
         <v>7383</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>8024</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2435,11 +2444,11 @@
       <c r="E18" s="5">
         <v>563</v>
       </c>
-      <c r="F18" s="6">
-        <v>827</v>
+      <c r="F18" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G18" s="7">
-        <v>12357</v>
+        <v>1390</v>
       </c>
       <c r="H18" s="5">
         <v>486</v>
@@ -2451,7 +2460,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10">
